--- a/color.xlsx
+++ b/color.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei\Desktop\B-Zone - Evidenta Automata\Excel Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\evid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0EE7D8-DE29-4A7A-ABE6-B7C08433E26F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7151A5A-0AF4-4F95-84C6-D86D4748F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{197E854B-D497-46FC-AC16-9B33D52D7071}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{197E854B-D497-46FC-AC16-9B33D52D7071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,9 +172,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -186,7 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -211,7 +208,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -557,49 +596,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="1"/>
@@ -607,659 +646,659 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="13"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="13"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="13"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="13"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="13"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="13"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="13"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="13"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="13"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="13"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="13"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="14"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="14"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="14"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="14"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="14"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="13"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -1314,7 +1353,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B36">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1324,7 +1363,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1334,7 +1373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C31">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1344,7 +1383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1354,7 +1393,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1363,8 +1402,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D36">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E36">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1374,7 +1431,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1383,26 +1440,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D36">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFC00000"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F36">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1412,7 +1451,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1422,7 +1461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G36">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1432,7 +1471,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1442,7 +1481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H36">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1454,7 +1493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I36">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1466,7 +1505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J36">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1478,7 +1517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K36">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1490,7 +1529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L36">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1502,7 +1541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M36">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1514,7 +1553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N29">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1528,7 +1567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N36">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1539,6 +1578,22 @@
           <x14:id>{C52B5CCC-FFBC-4D71-83BA-05BC6D449386}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O63">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="INACTIVITATE">
+      <formula>NOT(ISERROR(SEARCH("INACTIVITATE",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="INVOIT">
+      <formula>NOT(ISERROR(SEARCH("INVOIT",O2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N68">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="INACTIVITATE">
+      <formula>NOT(ISERROR(SEARCH("INACTIVITATE",N2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="INVOIT">
+      <formula>NOT(ISERROR(SEARCH("INVOIT",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1559,6 +1614,22 @@
           <xm:sqref>N2:N29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{FB3B6495-65F1-427E-A698-CF29749BFE1E}">
+            <xm:f>NOT(ISERROR(SEARCH("-",N2)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{E98EC7BB-C70D-4F25-8643-E56E5982727E}">
+            <xm:f>NOT(ISERROR(SEARCH("-",N2)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf/>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{C52B5CCC-FFBC-4D71-83BA-05BC6D449386}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -1571,26 +1642,7 @@
           <xm:sqref>N2:N36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{FB3B6495-65F1-427E-A698-CF29749BFE1E}">
-            <xm:f>NOT(ISERROR(SEARCH("-",N2)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{E98EC7BB-C70D-4F25-8643-E56E5982727E}">
-            <xm:f>NOT(ISERROR(SEARCH("-",N2)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf/>
-          </x14:cfRule>
-          <xm:sqref>N2:N36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{CEE918F7-C59B-49C0-AA84-3B85D88F9167}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{CEE918F7-C59B-49C0-AA84-3B85D88F9167}">
             <xm:f>NOT(ISERROR(SEARCH("-",O2)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
